--- a/v2CorrectionGridBJAssignment.xlsx
+++ b/v2CorrectionGridBJAssignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Cao\Desktop\FAll 2018\COMP 3004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Cao\IdeaProjects\TriCaoA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7790795C-B108-42AC-BA5F-3F8FACF093BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E96C7-427C-4980-A189-75CC85F642D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="9855" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>in presence of splitting, winner is correctly chosen</t>
-  </si>
-  <si>
-    <t>yes/no</t>
   </si>
   <si>
     <t>You have coded your dependencies using Maven</t>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>All method in GameTest.java display output</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -961,22 +961,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
       </c>
       <c r="G1" s="2">
         <v>100971065</v>
@@ -984,53 +984,53 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6">
@@ -1039,10 +1039,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7">
@@ -1051,10 +1051,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8">
@@ -1063,10 +1063,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="8">
         <f>SUM(J16:J45)</f>
@@ -1077,15 +1077,15 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11">
@@ -1094,10 +1094,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -1106,10 +1106,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14">
@@ -1121,29 +1121,29 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15">
         <v>0.5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1156,17 +1156,17 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1182,14 +1182,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18">
         <v>0.5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1205,14 +1205,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19">
         <v>0.5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1228,14 +1228,14 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1251,14 +1251,14 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1274,14 +1274,14 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1297,14 +1297,14 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1317,17 +1317,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24">
         <v>0.5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1340,17 +1340,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25">
         <v>0.5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1366,14 +1366,14 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1389,14 +1389,14 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1412,14 +1412,14 @@
         <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1435,14 +1435,14 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1458,14 +1458,14 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1481,14 +1481,14 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31">
         <v>0.5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1504,14 +1504,14 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32">
         <v>0.5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1524,17 +1524,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33">
         <v>0.5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1550,14 +1550,14 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34">
         <v>0.5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1570,17 +1570,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35">
         <v>0.5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1596,14 +1596,14 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36">
         <v>0.5</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1619,14 +1619,14 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1642,14 +1642,14 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1662,17 +1662,17 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1688,14 +1688,14 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1708,17 +1708,17 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1731,17 +1731,17 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1766,17 +1766,17 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1792,14 +1792,14 @@
         <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1815,7 +1815,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47">
@@ -1827,29 +1827,29 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48">
         <v>0.5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -1858,17 +1858,17 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1877,10 +1877,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51">
@@ -1889,10 +1889,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52">
@@ -1901,15 +1901,15 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54">
@@ -1918,15 +1918,15 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56">
@@ -1938,7 +1938,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57">
@@ -1947,15 +1947,15 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60">
@@ -1964,10 +1964,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61">
@@ -1976,10 +1976,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62">
@@ -1991,7 +1991,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4"/>
       <c r="D64">
@@ -2001,18 +2001,18 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67">
@@ -2021,7 +2021,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68">
@@ -2030,12 +2030,12 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71">
@@ -2044,7 +2044,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72">
@@ -2053,7 +2053,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73">
@@ -2062,7 +2062,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="7">
         <f>SUM(C6:C74)</f>
